--- a/Cung hoàng đạo/exx.xlsx
+++ b/Cung hoàng đạo/exx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Top những cặp đôi "không thể ăn ý hơn" trong 12 cung hoàng đạo</t>
   </si>
@@ -2973,6 +2973,57 @@
 Sư Tử
 Trong tình yêu, Sư Tử là kẻ hay đa nghi và ích kỷ, họ không muốn chia sẻ tình yêu của mình cho bất cứ ai. Khi ghen, Sư Tử sẽ không còn là con mèo lười ngoan ngoãn trong vòng tay bạn mà trở thành một chú Sư Tử thục thụ sẵn sàng làm đau bạn.
 Khi bạn làm tổn thương họ, Sư Tử sẽ ghen nhưng không làm ầm lên. Sư Tử ghen nhưng không đánh mất lí trí, chỉ nói bóng gió vài câu để bạn biết là họ… đang ghen nhưng rồi lại nhanh quên đi nếu bạn khéo léo và tinh ý một chút. Bạn biết đấy, vì muốn bạn là của riêng họ nên Sư Tử mới hờn ghen. Bởi thế, nếu đã yêu và hiểu con người Sư Tử, bạn chỉ cần minh bạch hơn trong các mối quan hệ và đừng quên quan tâm cung hoàng đạo này thường xuyên. </t>
+  </si>
+  <si>
+    <t>thienyetcugiai.jpg</t>
+  </si>
+  <si>
+    <t>12-cung-hoang-dao.jpg</t>
+  </si>
+  <si>
+    <t>su-nghiep-cung-thien-binh.jpg</t>
+  </si>
+  <si>
+    <t>virgo.jpg</t>
+  </si>
+  <si>
+    <t>cung-su-tu-13.jpg</t>
+  </si>
+  <si>
+    <t>12-cung-hoang-dao2.jpg</t>
+  </si>
+  <si>
+    <t>kim-nguu-va-ma-ket.jpg</t>
+  </si>
+  <si>
+    <t>12-cung-hoang-dao3.jpg</t>
+  </si>
+  <si>
+    <t>thien-binh-va-thien-yet-ong-nam-lang-ba-nua-can</t>
+  </si>
+  <si>
+    <t>sutu-25e16.jpg</t>
+  </si>
+  <si>
+    <t>bachduongnhanma.jpg</t>
+  </si>
+  <si>
+    <t>baobinh.jpg</t>
+  </si>
+  <si>
+    <t>maketbaobinh.jpg</t>
+  </si>
+  <si>
+    <t>thienbinhvabaobinh.jpg</t>
+  </si>
+  <si>
+    <t>thienbinhnhanma.jpg</t>
+  </si>
+  <si>
+    <t>thienyetcugiai2.jpg</t>
+  </si>
+  <si>
+    <t>kim-nguu-va-ma-ket2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3295,7 +3346,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3303,27 +3354,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3331,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3339,15 +3394,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3355,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3363,55 +3421,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3419,15 +3495,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3435,7 +3514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3443,7 +3522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3451,7 +3530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3459,7 +3538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3467,7 +3546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3475,7 +3554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3483,7 +3562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3491,15 +3570,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3507,7 +3589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -3515,15 +3597,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +3616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3539,7 +3624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3547,7 +3632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3555,7 +3640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3563,7 +3648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3571,7 +3656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3587,7 +3672,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -3595,7 +3680,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -3611,15 +3696,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3627,15 +3715,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -3643,7 +3734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3651,7 +3742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -3659,7 +3750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -3667,7 +3758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -3675,7 +3766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -3683,7 +3774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,7 +3782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -3699,7 +3790,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -3707,7 +3798,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -3715,7 +3806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -3723,15 +3814,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -3739,15 +3833,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -3755,7 +3852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -3763,7 +3860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -3771,7 +3868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -3779,7 +3876,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -3787,7 +3884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -3795,7 +3892,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -3803,7 +3900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -3811,7 +3908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -3819,7 +3916,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
@@ -3827,7 +3924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -3835,7 +3932,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -3843,7 +3940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -3851,7 +3948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -3859,7 +3956,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -3867,7 +3964,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -3875,7 +3972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
@@ -3883,7 +3980,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
@@ -3891,7 +3988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -3899,7 +3996,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -3907,7 +4004,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
@@ -3915,15 +4012,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -3931,7 +4031,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
@@ -3939,7 +4039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
@@ -3947,7 +4047,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
@@ -3955,7 +4055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
@@ -3963,7 +4063,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -3971,7 +4071,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
@@ -3979,7 +4079,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
@@ -3987,7 +4087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
@@ -3995,7 +4095,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
@@ -4003,7 +4103,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
@@ -4011,7 +4111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
@@ -4019,7 +4119,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
@@ -4027,7 +4127,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
@@ -4035,7 +4135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
@@ -4043,15 +4143,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
@@ -4059,7 +4162,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>184</v>
       </c>
@@ -4067,7 +4170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
@@ -4075,7 +4178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
